--- a/SoHo XI.xlsx
+++ b/SoHo XI.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-42680" yWindow="-11120" windowWidth="32860" windowHeight="18440" tabRatio="858" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Open Source Policy" sheetId="4" r:id="rId1"/>
     <sheet name="Instructions" sheetId="3" r:id="rId2"/>
     <sheet name="History and Approvals" sheetId="2" r:id="rId3"/>
     <sheet name="Open Source Survey" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Infor Html5 Controls v3.0" sheetId="6" r:id="rId5"/>
+    <sheet name="Infor Html5 Controls v3.2" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -597,12 +599,1165 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Andrew Hall</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A. OSS Component</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please provide the names of the OSS Components used or distributed in connection with our Product, including any development tools (e.g., debuggers, compilers, SDKs), libraries, applications, and other OSS Components.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>B. OSS Version</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please provide the version numbers for the OSS Component.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C. Date</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please provide the date that the OSS Component was last downloaded and placed into the company's software repository.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">D. Provider/Source
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Please provide the hypertext link (URL) to the website, ftp site, or other source of the OSS Components.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E. License/Link</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please identify the applicable OSS License (e.g., Apache 2.0, LGPL 2.1) and  provide link (URL) directly to the OSS license terms covering the Component.  
+Do NOT provide a link to the to source of OSS, which is to be provided in Column D; instead, link directly to the OSS license terms. 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">F. Sub-Components  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If the OSS Component is a sub-component of another OSS Component or includes other OSS Components, please identify those OSS Components and the relationship between the OSS Components.  (e.g., OSS Component A incorporates/depends on OSS Component B)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>G. Distribution</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NOTE: THIS IS A 2-PART QUESTION. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Part 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.  Please indicate, with a "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YES</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>" or "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">", whether this OSS Component will be distributed to Infor customers or others outside the company.  Please note that providing access to the software in a hosted environment, but not providing a copy of the software, does not constitute distribution.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Part 2. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> If the answer to Part 1 is "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YES</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">", please describe how the OSS Components will be distributed by Info outside the company, by picking the appropriate a letter below or by providing a description of the distribution.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(A)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Infor will be providing the OSS as a bundled, embedded or linked module to the Infor software.   
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(B)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Infor will be providing the OSS as a standalone, separate program. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(C)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> The customer will be directed to a separate site for a separate download of the OSS. 
+For example, if Infor provides the OSS Component embedded within Infor products, the entry for such component is "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YES (A)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">".
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">H. Redistribution </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please indicate whether the OSS Component will be redistributed by our customer or others outside the Company.  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(Typically, the answer here should be NO)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>I. Interaction with Company Code</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please indicate how the OSS Component will interact with the Infor Product(s).  
+Examples of interaction descriptions include: 
+(i) OSS is a standalone program, 
+(ii) OSS statically linked to, 
+(iii) OSS dynamically linked to,
+(iv) OSS directly combined with Infor source code, 
+(v) OSS passes data to Infor software through files.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>J. Purpose</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Describe the purpose for using the OSS Component.
+Examples of purpose descriptions include:
+(i) Web server
+(ii) PDF creation/ manipulation
+(iii) Data encryption
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L. Modifications.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please indicate whether any modifications have been or will be made to the OSS.  If so, please describe the nature of those modifications.  
+Examples of modification descriptions include:
+(i) bug fixes,
+(ii) functional enhancements,
+(iii) ported to another platform.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note: Written Approval Required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Infor's current OSS Policy does NOT permit contributions without specific written approval. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: Do NOT Remove Notices from OSS
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copyright notices, disclaimers, and similar notices should NOT be removed from the OSS source code or other OSS materials.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In addition to the requirements set forth below, most OSS license terms require inclusion of the appropriate copyright notices, notices of attribution to the author, and a copy of the OSS license, including all required disclaimers, as set forth in the OSS license agreement. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Andrew Hall</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A. OSS Component</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please provide the names of the OSS Components used or distributed in connection with our Product, including any development tools (e.g., debuggers, compilers, SDKs), libraries, applications, and other OSS Components.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>B. OSS Version</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please provide the version numbers for the OSS Component.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C. Date</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please provide the date that the OSS Component was last downloaded and placed into the company's software repository.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">D. Provider/Source
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Please provide the hypertext link (URL) to the website, ftp site, or other source of the OSS Components.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E. License/Link</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please identify the applicable OSS License (e.g., Apache 2.0, LGPL 2.1) and  provide link (URL) directly to the OSS license terms covering the Component.  
+Do NOT provide a link to the to source of OSS, which is to be provided in Column D; instead, link directly to the OSS license terms. 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">F. Sub-Components  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If the OSS Component is a sub-component of another OSS Component or includes other OSS Components, please identify those OSS Components and the relationship between the OSS Components.  (e.g., OSS Component A incorporates/depends on OSS Component B)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>G. Distribution</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NOTE: THIS IS A 2-PART QUESTION. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Part 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.  Please indicate, with a "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YES</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>" or "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">", whether this OSS Component will be distributed to Infor customers or others outside the company.  Please note that providing access to the software in a hosted environment, but not providing a copy of the software, does not constitute distribution.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Part 2. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> If the answer to Part 1 is "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YES</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">", please describe how the OSS Components will be distributed by Info outside the company, by picking the appropriate a letter below or by providing a description of the distribution.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(A)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Infor will be providing the OSS as a bundled, embedded or linked module to the Infor software.   
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(B)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Infor will be providing the OSS as a standalone, separate program. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(C)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> The customer will be directed to a separate site for a separate download of the OSS. 
+For example, if Infor provides the OSS Component embedded within Infor products, the entry for such component is "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YES (A)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">".
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">H. Redistribution </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please indicate whether the OSS Component will be redistributed by our customer or others outside the Company.  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(Typically, the answer here should be NO)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>I. Interaction with Company Code</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please indicate how the OSS Component will interact with the Infor Product(s).  
+Examples of interaction descriptions include: 
+(i) OSS is a standalone program, 
+(ii) OSS statically linked to, 
+(iii) OSS dynamically linked to,
+(iv) OSS directly combined with Infor source code, 
+(v) OSS passes data to Infor software through files.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>J. Purpose</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Describe the purpose for using the OSS Component.
+Examples of purpose descriptions include:
+(i) Web server
+(ii) PDF creation/ manipulation
+(iii) Data encryption
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L. Modifications.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please indicate whether any modifications have been or will be made to the OSS.  If so, please describe the nature of those modifications.  
+Examples of modification descriptions include:
+(i) bug fixes,
+(ii) functional enhancements,
+(iii) ported to another platform.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note: Written Approval Required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Infor's current OSS Policy does NOT permit contributions without specific written approval. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: Do NOT Remove Notices from OSS
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copyright notices, disclaimers, and similar notices should NOT be removed from the OSS source code or other OSS materials.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In addition to the requirements set forth below, most OSS license terms require inclusion of the appropriate copyright notices, notices of attribution to the author, and a copy of the OSS license, including all required disclaimers, as set forth in the OSS license agreement. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="148">
   <si>
     <t>MODIFICATION HISTORY</t>
   </si>
   <si>
+    <t>Version No.</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -610,6 +1765,9 @@
   </si>
   <si>
     <t xml:space="preserve">* follow Open Source procedure to ensure appropriate approvals are received and documented accordingly </t>
+  </si>
+  <si>
+    <t>First version for this new product</t>
   </si>
   <si>
     <t>PURPOSE</t>
@@ -668,6 +1826,36 @@
     <t>Step 1: Complete Open Source Survey (Development)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Upload workbook to: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://development.home.infor.com/pmprojects/Organizational%20Readiness%20Documents/Forms/AllItems.aspx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  under Open Source Registration</t>
+    </r>
+  </si>
+  <si>
     <t>Name of Approving Development Manager</t>
   </si>
   <si>
@@ -680,6 +1868,36 @@
     <t>Step 2: Submit Open Source Survey</t>
   </si>
   <si>
+    <t xml:space="preserve">Submit workbook to the Organizational Readiness area of Infor Development. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Rename workbook to Infor Open Source Survey - Product Line/Module Name -MM-DD-YY.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - The most recent version of this form is available here: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">http://development.home.infor.com/pmprojects/Organizational%20Readiness%20Documents/Forms/AllItems.aspx </t>
+    </r>
+  </si>
+  <si>
+    <t>Step 3: Open Source Survey Review and Approval</t>
+  </si>
+  <si>
     <t xml:space="preserve">If you have any questions about the OSS review process, or in completing the Open Source Survey, please contact Diane Metzger.  </t>
   </si>
   <si>
@@ -687,6 +1905,9 @@
   </si>
   <si>
     <t xml:space="preserve">Complete an Open Source Survey for each licensable sku (i.e., CRM) in an Infor product line (i.e., Syteline) for which you plan to utilize, include or rely upon any OSS.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of OSS is not permitted until the approvals required by this Open Source Survey have been obtained and documented, including by Infor Legal. To the extent that use of an OSS component is permitted, such use is subject to the Requirements and any other comments noted in the completed and approved Open Source Survey. </t>
   </si>
   <si>
     <t xml:space="preserve">The following requirements and/or limitations must be met in order to use and/or distribute the identified OSS. </t>
@@ -860,80 +2081,397 @@
     <t>Will Infor be making contributions to the OSS project or community? (requires written approval)</t>
   </si>
   <si>
-    <t>Product and Version No.</t>
-  </si>
-  <si>
-    <t>http://development.home.infor.com/pmprojects/OSR/Shared%20Documents/Forms/AllItems.aspx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - The most recent version of this form is available here: </t>
-  </si>
-  <si>
-    <t>See PPT posted here for instructions on Submitting OSS</t>
-  </si>
-  <si>
-    <t>Gramercy Park (Formerly Html5 Controls)</t>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>jQuery UI</t>
+  </si>
+  <si>
+    <t>Slick Grid</t>
+  </si>
+  <si>
+    <t>JQuery Cookie plugin</t>
+  </si>
+  <si>
+    <t>jQuery selectBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JQuery mouse Wheel Plugin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hover Intent plugin </t>
+  </si>
+  <si>
+    <t>Splitter</t>
+  </si>
+  <si>
+    <t>jsTree</t>
+  </si>
+  <si>
+    <t>jQuery Globalize</t>
+  </si>
+  <si>
+    <t>smartresize</t>
+  </si>
+  <si>
+    <t>jQuery Hotkeys Plugin</t>
+  </si>
+  <si>
+    <t>jquery.event.drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jquery.event.drop </t>
+  </si>
+  <si>
+    <t>Modernizr</t>
+  </si>
+  <si>
+    <t>KnockOut</t>
+  </si>
+  <si>
+    <t>jQuery-Placeholder</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>3.0.6</t>
+  </si>
+  <si>
+    <t>r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0.0 </t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>2.1.05</t>
+  </si>
+  <si>
+    <t>jQuery Masonry</t>
+  </si>
+  <si>
+    <t>http://jquery.org</t>
+  </si>
+  <si>
+    <t>http://jqueryui.com/</t>
+  </si>
+  <si>
+    <t>http://github.com/mleibman/slickgrid</t>
+  </si>
+  <si>
+    <t>https://github.com/carhartl/jquery-cookie</t>
+  </si>
+  <si>
+    <t>https://github.com/claviska/jquery-selectBox</t>
+  </si>
+  <si>
+    <t>https://github.com/brandonaaron/jquery-mousewheel</t>
+  </si>
+  <si>
+    <t>http://cherne.net/brian/resources/jquery.hoverIntent.html</t>
+  </si>
+  <si>
+    <t>http://krikus.com/js/splitter/</t>
+  </si>
+  <si>
+    <t>https://github.com/vakata/jstree</t>
+  </si>
+  <si>
+    <t>https://github.com/jquery/globalize</t>
+  </si>
+  <si>
+    <t>https://github.com/louisremi/jquery-smartresize</t>
+  </si>
+  <si>
+    <t>https://github.com/jeresig/jquery.hotkeys</t>
+  </si>
+  <si>
+    <t>http://code.google.com/p/threedubmedia/</t>
+  </si>
+  <si>
+    <t>http://modernizr.com/download/</t>
+  </si>
+  <si>
+    <t>http://github.com/downloads/SteveSanderson/knockout/knockout-2.0.0.js</t>
+  </si>
+  <si>
+    <t>https://raw.github.com/desandro/masonry/master/jquery.masonry.js</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>(iv) OSS directly combined with Infor source code</t>
+  </si>
+  <si>
+    <t>Provide Common Html Controls for the Visual Style Guide used across Infor Web Applications</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Version No. 2</t>
+  </si>
+  <si>
+    <t>Version No. 3</t>
   </si>
   <si>
     <t>Tim McConechy</t>
   </si>
   <si>
-    <t>Kellen Styler</t>
-  </si>
-  <si>
-    <t>https://github.com/briangonzalez/jquery.pep.js/</t>
-  </si>
-  <si>
-    <t>https://tldrlegal.com/license/mit-license</t>
-  </si>
-  <si>
-    <t>v0.6.0</t>
-  </si>
-  <si>
-    <t>jQuery Pep</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes, Removed un-needed code and changed names in API</t>
-  </si>
-  <si>
-    <t>Drag Drop / Touch Functionality</t>
-  </si>
-  <si>
-    <t>(iv) OSS Directly Combined with Infor Source code.</t>
-  </si>
-  <si>
-    <t>jQuery</t>
-  </si>
-  <si>
-    <t>https://github.com/cowboy/jquery-dotimeout/blob/master/LICENSE-MIT</t>
-  </si>
-  <si>
-    <t>jquery-dotimeout</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>Coding Help</t>
-  </si>
-  <si>
-    <t>09.09.2014</t>
-  </si>
-  <si>
-    <t>08.09.2014</t>
-  </si>
-  <si>
-    <t>v2.1.1</t>
+    <t>Second Version - One new component Added.</t>
+  </si>
+  <si>
+    <t>Maureen Kenney - 8/9/2012</t>
+  </si>
+  <si>
+    <t>John Goehringer &lt;John.Goehringer@infor.com&gt;</t>
+  </si>
+  <si>
+    <t>James W Jones (US) &lt;James.Jones@infor.com&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">MIT: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/jquery/jquery/blob/master/MIT-LICENSE.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MIT: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/mleibman/SlickGrid/blob/master/MIT-LICENSE.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">MIT: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://www.opensource.org/licenses/mit-license.php</t>
+    </r>
+  </si>
+  <si>
+    <t>MIT: http://opensource.org/licenses/mit-license.php</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MIT: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/vakata/jstree/blob/v.1.0/LICENSE-MIT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MIT: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/jquery/globalize/blob/master/LICENSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">MIT: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://modernizr.com/license/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MIT:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> https://github.com/brandonaaron/jquery-mousewheel/blob/master/LICENSE.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Obligations:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+License text (documentation)
+Copyright notice (documentation)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIT:http://www.opensource.org/licenses/mit-license.php </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT:http://www.opensource.org/licenses/mit-license.php </t>
+  </si>
+  <si>
+    <t>http://www.iliadraznin.com/examples/better-jquery-placeholder-script/jquery.addplaceholder.js</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>http://d3js.org/</t>
+  </si>
+  <si>
+    <t>https://raw.github.com/mbostock/d3/master/LICENSE</t>
+  </si>
+  <si>
+    <t>Added d3, Changed Jquery Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel McClure </t>
+  </si>
+  <si>
+    <t>http://gruntjs.com/</t>
+  </si>
+  <si>
+    <t>Grunt Js</t>
+  </si>
+  <si>
+    <t>.0.4.1</t>
+  </si>
+  <si>
+    <t>Used to build Infor Source Code</t>
+  </si>
+  <si>
+    <t>MIT:  https://github.com/gruntjs/grunt/blob/master/LICENSE-MIT</t>
+  </si>
+  <si>
+    <t>MIT:  https://raw.github.com/mbostock/d3/master/LICENSE</t>
+  </si>
+  <si>
+    <t>Node Js</t>
+  </si>
+  <si>
+    <t>0.10.21</t>
+  </si>
+  <si>
+    <t>http://nodejs.org/</t>
+  </si>
+  <si>
+    <t>MIT: https://github.com/joyent/node/blob/master/LICENSE</t>
+  </si>
+  <si>
+    <t>Used to build and Test and Host Infor Source Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1044,6 +2582,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -1082,8 +2626,32 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +2697,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1310,15 +2884,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1335,6 +2911,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1363,6 +2940,10 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1399,6 +2980,7 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1427,10 +3009,18 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1470,13 +3060,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1485,14 +3079,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,24 +3143,118 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,12 +3263,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4585,75 +6272,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A131" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="53"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="54"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="56"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="62"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4665,337 +6352,353 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H34"/>
+  <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="143.6640625" style="22" customWidth="1"/>
-    <col min="3" max="256" width="8.83203125" style="21"/>
-    <col min="257" max="257" width="1.6640625" style="21" customWidth="1"/>
-    <col min="258" max="258" width="143.6640625" style="21" customWidth="1"/>
-    <col min="259" max="512" width="8.83203125" style="21"/>
-    <col min="513" max="513" width="1.6640625" style="21" customWidth="1"/>
-    <col min="514" max="514" width="143.6640625" style="21" customWidth="1"/>
-    <col min="515" max="768" width="8.83203125" style="21"/>
-    <col min="769" max="769" width="1.6640625" style="21" customWidth="1"/>
-    <col min="770" max="770" width="143.6640625" style="21" customWidth="1"/>
-    <col min="771" max="1024" width="8.83203125" style="21"/>
-    <col min="1025" max="1025" width="1.6640625" style="21" customWidth="1"/>
-    <col min="1026" max="1026" width="143.6640625" style="21" customWidth="1"/>
-    <col min="1027" max="1280" width="8.83203125" style="21"/>
-    <col min="1281" max="1281" width="1.6640625" style="21" customWidth="1"/>
-    <col min="1282" max="1282" width="143.6640625" style="21" customWidth="1"/>
-    <col min="1283" max="1536" width="8.83203125" style="21"/>
-    <col min="1537" max="1537" width="1.6640625" style="21" customWidth="1"/>
-    <col min="1538" max="1538" width="143.6640625" style="21" customWidth="1"/>
-    <col min="1539" max="1792" width="8.83203125" style="21"/>
-    <col min="1793" max="1793" width="1.6640625" style="21" customWidth="1"/>
-    <col min="1794" max="1794" width="143.6640625" style="21" customWidth="1"/>
-    <col min="1795" max="2048" width="8.83203125" style="21"/>
-    <col min="2049" max="2049" width="1.6640625" style="21" customWidth="1"/>
-    <col min="2050" max="2050" width="143.6640625" style="21" customWidth="1"/>
-    <col min="2051" max="2304" width="8.83203125" style="21"/>
-    <col min="2305" max="2305" width="1.6640625" style="21" customWidth="1"/>
-    <col min="2306" max="2306" width="143.6640625" style="21" customWidth="1"/>
-    <col min="2307" max="2560" width="8.83203125" style="21"/>
-    <col min="2561" max="2561" width="1.6640625" style="21" customWidth="1"/>
-    <col min="2562" max="2562" width="143.6640625" style="21" customWidth="1"/>
-    <col min="2563" max="2816" width="8.83203125" style="21"/>
-    <col min="2817" max="2817" width="1.6640625" style="21" customWidth="1"/>
-    <col min="2818" max="2818" width="143.6640625" style="21" customWidth="1"/>
-    <col min="2819" max="3072" width="8.83203125" style="21"/>
-    <col min="3073" max="3073" width="1.6640625" style="21" customWidth="1"/>
-    <col min="3074" max="3074" width="143.6640625" style="21" customWidth="1"/>
-    <col min="3075" max="3328" width="8.83203125" style="21"/>
-    <col min="3329" max="3329" width="1.6640625" style="21" customWidth="1"/>
-    <col min="3330" max="3330" width="143.6640625" style="21" customWidth="1"/>
-    <col min="3331" max="3584" width="8.83203125" style="21"/>
-    <col min="3585" max="3585" width="1.6640625" style="21" customWidth="1"/>
-    <col min="3586" max="3586" width="143.6640625" style="21" customWidth="1"/>
-    <col min="3587" max="3840" width="8.83203125" style="21"/>
-    <col min="3841" max="3841" width="1.6640625" style="21" customWidth="1"/>
-    <col min="3842" max="3842" width="143.6640625" style="21" customWidth="1"/>
-    <col min="3843" max="4096" width="8.83203125" style="21"/>
-    <col min="4097" max="4097" width="1.6640625" style="21" customWidth="1"/>
-    <col min="4098" max="4098" width="143.6640625" style="21" customWidth="1"/>
-    <col min="4099" max="4352" width="8.83203125" style="21"/>
-    <col min="4353" max="4353" width="1.6640625" style="21" customWidth="1"/>
-    <col min="4354" max="4354" width="143.6640625" style="21" customWidth="1"/>
-    <col min="4355" max="4608" width="8.83203125" style="21"/>
-    <col min="4609" max="4609" width="1.6640625" style="21" customWidth="1"/>
-    <col min="4610" max="4610" width="143.6640625" style="21" customWidth="1"/>
-    <col min="4611" max="4864" width="8.83203125" style="21"/>
-    <col min="4865" max="4865" width="1.6640625" style="21" customWidth="1"/>
-    <col min="4866" max="4866" width="143.6640625" style="21" customWidth="1"/>
-    <col min="4867" max="5120" width="8.83203125" style="21"/>
-    <col min="5121" max="5121" width="1.6640625" style="21" customWidth="1"/>
-    <col min="5122" max="5122" width="143.6640625" style="21" customWidth="1"/>
-    <col min="5123" max="5376" width="8.83203125" style="21"/>
-    <col min="5377" max="5377" width="1.6640625" style="21" customWidth="1"/>
-    <col min="5378" max="5378" width="143.6640625" style="21" customWidth="1"/>
-    <col min="5379" max="5632" width="8.83203125" style="21"/>
-    <col min="5633" max="5633" width="1.6640625" style="21" customWidth="1"/>
-    <col min="5634" max="5634" width="143.6640625" style="21" customWidth="1"/>
-    <col min="5635" max="5888" width="8.83203125" style="21"/>
-    <col min="5889" max="5889" width="1.6640625" style="21" customWidth="1"/>
-    <col min="5890" max="5890" width="143.6640625" style="21" customWidth="1"/>
-    <col min="5891" max="6144" width="8.83203125" style="21"/>
-    <col min="6145" max="6145" width="1.6640625" style="21" customWidth="1"/>
-    <col min="6146" max="6146" width="143.6640625" style="21" customWidth="1"/>
-    <col min="6147" max="6400" width="8.83203125" style="21"/>
-    <col min="6401" max="6401" width="1.6640625" style="21" customWidth="1"/>
-    <col min="6402" max="6402" width="143.6640625" style="21" customWidth="1"/>
-    <col min="6403" max="6656" width="8.83203125" style="21"/>
-    <col min="6657" max="6657" width="1.6640625" style="21" customWidth="1"/>
-    <col min="6658" max="6658" width="143.6640625" style="21" customWidth="1"/>
-    <col min="6659" max="6912" width="8.83203125" style="21"/>
-    <col min="6913" max="6913" width="1.6640625" style="21" customWidth="1"/>
-    <col min="6914" max="6914" width="143.6640625" style="21" customWidth="1"/>
-    <col min="6915" max="7168" width="8.83203125" style="21"/>
-    <col min="7169" max="7169" width="1.6640625" style="21" customWidth="1"/>
-    <col min="7170" max="7170" width="143.6640625" style="21" customWidth="1"/>
-    <col min="7171" max="7424" width="8.83203125" style="21"/>
-    <col min="7425" max="7425" width="1.6640625" style="21" customWidth="1"/>
-    <col min="7426" max="7426" width="143.6640625" style="21" customWidth="1"/>
-    <col min="7427" max="7680" width="8.83203125" style="21"/>
-    <col min="7681" max="7681" width="1.6640625" style="21" customWidth="1"/>
-    <col min="7682" max="7682" width="143.6640625" style="21" customWidth="1"/>
-    <col min="7683" max="7936" width="8.83203125" style="21"/>
-    <col min="7937" max="7937" width="1.6640625" style="21" customWidth="1"/>
-    <col min="7938" max="7938" width="143.6640625" style="21" customWidth="1"/>
-    <col min="7939" max="8192" width="8.83203125" style="21"/>
-    <col min="8193" max="8193" width="1.6640625" style="21" customWidth="1"/>
-    <col min="8194" max="8194" width="143.6640625" style="21" customWidth="1"/>
-    <col min="8195" max="8448" width="8.83203125" style="21"/>
-    <col min="8449" max="8449" width="1.6640625" style="21" customWidth="1"/>
-    <col min="8450" max="8450" width="143.6640625" style="21" customWidth="1"/>
-    <col min="8451" max="8704" width="8.83203125" style="21"/>
-    <col min="8705" max="8705" width="1.6640625" style="21" customWidth="1"/>
-    <col min="8706" max="8706" width="143.6640625" style="21" customWidth="1"/>
-    <col min="8707" max="8960" width="8.83203125" style="21"/>
-    <col min="8961" max="8961" width="1.6640625" style="21" customWidth="1"/>
-    <col min="8962" max="8962" width="143.6640625" style="21" customWidth="1"/>
-    <col min="8963" max="9216" width="8.83203125" style="21"/>
-    <col min="9217" max="9217" width="1.6640625" style="21" customWidth="1"/>
-    <col min="9218" max="9218" width="143.6640625" style="21" customWidth="1"/>
-    <col min="9219" max="9472" width="8.83203125" style="21"/>
-    <col min="9473" max="9473" width="1.6640625" style="21" customWidth="1"/>
-    <col min="9474" max="9474" width="143.6640625" style="21" customWidth="1"/>
-    <col min="9475" max="9728" width="8.83203125" style="21"/>
-    <col min="9729" max="9729" width="1.6640625" style="21" customWidth="1"/>
-    <col min="9730" max="9730" width="143.6640625" style="21" customWidth="1"/>
-    <col min="9731" max="9984" width="8.83203125" style="21"/>
-    <col min="9985" max="9985" width="1.6640625" style="21" customWidth="1"/>
-    <col min="9986" max="9986" width="143.6640625" style="21" customWidth="1"/>
-    <col min="9987" max="10240" width="8.83203125" style="21"/>
-    <col min="10241" max="10241" width="1.6640625" style="21" customWidth="1"/>
-    <col min="10242" max="10242" width="143.6640625" style="21" customWidth="1"/>
-    <col min="10243" max="10496" width="8.83203125" style="21"/>
-    <col min="10497" max="10497" width="1.6640625" style="21" customWidth="1"/>
-    <col min="10498" max="10498" width="143.6640625" style="21" customWidth="1"/>
-    <col min="10499" max="10752" width="8.83203125" style="21"/>
-    <col min="10753" max="10753" width="1.6640625" style="21" customWidth="1"/>
-    <col min="10754" max="10754" width="143.6640625" style="21" customWidth="1"/>
-    <col min="10755" max="11008" width="8.83203125" style="21"/>
-    <col min="11009" max="11009" width="1.6640625" style="21" customWidth="1"/>
-    <col min="11010" max="11010" width="143.6640625" style="21" customWidth="1"/>
-    <col min="11011" max="11264" width="8.83203125" style="21"/>
-    <col min="11265" max="11265" width="1.6640625" style="21" customWidth="1"/>
-    <col min="11266" max="11266" width="143.6640625" style="21" customWidth="1"/>
-    <col min="11267" max="11520" width="8.83203125" style="21"/>
-    <col min="11521" max="11521" width="1.6640625" style="21" customWidth="1"/>
-    <col min="11522" max="11522" width="143.6640625" style="21" customWidth="1"/>
-    <col min="11523" max="11776" width="8.83203125" style="21"/>
-    <col min="11777" max="11777" width="1.6640625" style="21" customWidth="1"/>
-    <col min="11778" max="11778" width="143.6640625" style="21" customWidth="1"/>
-    <col min="11779" max="12032" width="8.83203125" style="21"/>
-    <col min="12033" max="12033" width="1.6640625" style="21" customWidth="1"/>
-    <col min="12034" max="12034" width="143.6640625" style="21" customWidth="1"/>
-    <col min="12035" max="12288" width="8.83203125" style="21"/>
-    <col min="12289" max="12289" width="1.6640625" style="21" customWidth="1"/>
-    <col min="12290" max="12290" width="143.6640625" style="21" customWidth="1"/>
-    <col min="12291" max="12544" width="8.83203125" style="21"/>
-    <col min="12545" max="12545" width="1.6640625" style="21" customWidth="1"/>
-    <col min="12546" max="12546" width="143.6640625" style="21" customWidth="1"/>
-    <col min="12547" max="12800" width="8.83203125" style="21"/>
-    <col min="12801" max="12801" width="1.6640625" style="21" customWidth="1"/>
-    <col min="12802" max="12802" width="143.6640625" style="21" customWidth="1"/>
-    <col min="12803" max="13056" width="8.83203125" style="21"/>
-    <col min="13057" max="13057" width="1.6640625" style="21" customWidth="1"/>
-    <col min="13058" max="13058" width="143.6640625" style="21" customWidth="1"/>
-    <col min="13059" max="13312" width="8.83203125" style="21"/>
-    <col min="13313" max="13313" width="1.6640625" style="21" customWidth="1"/>
-    <col min="13314" max="13314" width="143.6640625" style="21" customWidth="1"/>
-    <col min="13315" max="13568" width="8.83203125" style="21"/>
-    <col min="13569" max="13569" width="1.6640625" style="21" customWidth="1"/>
-    <col min="13570" max="13570" width="143.6640625" style="21" customWidth="1"/>
-    <col min="13571" max="13824" width="8.83203125" style="21"/>
-    <col min="13825" max="13825" width="1.6640625" style="21" customWidth="1"/>
-    <col min="13826" max="13826" width="143.6640625" style="21" customWidth="1"/>
-    <col min="13827" max="14080" width="8.83203125" style="21"/>
-    <col min="14081" max="14081" width="1.6640625" style="21" customWidth="1"/>
-    <col min="14082" max="14082" width="143.6640625" style="21" customWidth="1"/>
-    <col min="14083" max="14336" width="8.83203125" style="21"/>
-    <col min="14337" max="14337" width="1.6640625" style="21" customWidth="1"/>
-    <col min="14338" max="14338" width="143.6640625" style="21" customWidth="1"/>
-    <col min="14339" max="14592" width="8.83203125" style="21"/>
-    <col min="14593" max="14593" width="1.6640625" style="21" customWidth="1"/>
-    <col min="14594" max="14594" width="143.6640625" style="21" customWidth="1"/>
-    <col min="14595" max="14848" width="8.83203125" style="21"/>
-    <col min="14849" max="14849" width="1.6640625" style="21" customWidth="1"/>
-    <col min="14850" max="14850" width="143.6640625" style="21" customWidth="1"/>
-    <col min="14851" max="15104" width="8.83203125" style="21"/>
-    <col min="15105" max="15105" width="1.6640625" style="21" customWidth="1"/>
-    <col min="15106" max="15106" width="143.6640625" style="21" customWidth="1"/>
-    <col min="15107" max="15360" width="8.83203125" style="21"/>
-    <col min="15361" max="15361" width="1.6640625" style="21" customWidth="1"/>
-    <col min="15362" max="15362" width="143.6640625" style="21" customWidth="1"/>
-    <col min="15363" max="15616" width="8.83203125" style="21"/>
-    <col min="15617" max="15617" width="1.6640625" style="21" customWidth="1"/>
-    <col min="15618" max="15618" width="143.6640625" style="21" customWidth="1"/>
-    <col min="15619" max="15872" width="8.83203125" style="21"/>
-    <col min="15873" max="15873" width="1.6640625" style="21" customWidth="1"/>
-    <col min="15874" max="15874" width="143.6640625" style="21" customWidth="1"/>
-    <col min="15875" max="16128" width="8.83203125" style="21"/>
-    <col min="16129" max="16129" width="1.6640625" style="21" customWidth="1"/>
-    <col min="16130" max="16130" width="143.6640625" style="21" customWidth="1"/>
-    <col min="16131" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="1.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="143.6640625" style="24" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" style="23"/>
+    <col min="257" max="257" width="1.6640625" style="23" customWidth="1"/>
+    <col min="258" max="258" width="143.6640625" style="23" customWidth="1"/>
+    <col min="259" max="512" width="8.83203125" style="23"/>
+    <col min="513" max="513" width="1.6640625" style="23" customWidth="1"/>
+    <col min="514" max="514" width="143.6640625" style="23" customWidth="1"/>
+    <col min="515" max="768" width="8.83203125" style="23"/>
+    <col min="769" max="769" width="1.6640625" style="23" customWidth="1"/>
+    <col min="770" max="770" width="143.6640625" style="23" customWidth="1"/>
+    <col min="771" max="1024" width="8.83203125" style="23"/>
+    <col min="1025" max="1025" width="1.6640625" style="23" customWidth="1"/>
+    <col min="1026" max="1026" width="143.6640625" style="23" customWidth="1"/>
+    <col min="1027" max="1280" width="8.83203125" style="23"/>
+    <col min="1281" max="1281" width="1.6640625" style="23" customWidth="1"/>
+    <col min="1282" max="1282" width="143.6640625" style="23" customWidth="1"/>
+    <col min="1283" max="1536" width="8.83203125" style="23"/>
+    <col min="1537" max="1537" width="1.6640625" style="23" customWidth="1"/>
+    <col min="1538" max="1538" width="143.6640625" style="23" customWidth="1"/>
+    <col min="1539" max="1792" width="8.83203125" style="23"/>
+    <col min="1793" max="1793" width="1.6640625" style="23" customWidth="1"/>
+    <col min="1794" max="1794" width="143.6640625" style="23" customWidth="1"/>
+    <col min="1795" max="2048" width="8.83203125" style="23"/>
+    <col min="2049" max="2049" width="1.6640625" style="23" customWidth="1"/>
+    <col min="2050" max="2050" width="143.6640625" style="23" customWidth="1"/>
+    <col min="2051" max="2304" width="8.83203125" style="23"/>
+    <col min="2305" max="2305" width="1.6640625" style="23" customWidth="1"/>
+    <col min="2306" max="2306" width="143.6640625" style="23" customWidth="1"/>
+    <col min="2307" max="2560" width="8.83203125" style="23"/>
+    <col min="2561" max="2561" width="1.6640625" style="23" customWidth="1"/>
+    <col min="2562" max="2562" width="143.6640625" style="23" customWidth="1"/>
+    <col min="2563" max="2816" width="8.83203125" style="23"/>
+    <col min="2817" max="2817" width="1.6640625" style="23" customWidth="1"/>
+    <col min="2818" max="2818" width="143.6640625" style="23" customWidth="1"/>
+    <col min="2819" max="3072" width="8.83203125" style="23"/>
+    <col min="3073" max="3073" width="1.6640625" style="23" customWidth="1"/>
+    <col min="3074" max="3074" width="143.6640625" style="23" customWidth="1"/>
+    <col min="3075" max="3328" width="8.83203125" style="23"/>
+    <col min="3329" max="3329" width="1.6640625" style="23" customWidth="1"/>
+    <col min="3330" max="3330" width="143.6640625" style="23" customWidth="1"/>
+    <col min="3331" max="3584" width="8.83203125" style="23"/>
+    <col min="3585" max="3585" width="1.6640625" style="23" customWidth="1"/>
+    <col min="3586" max="3586" width="143.6640625" style="23" customWidth="1"/>
+    <col min="3587" max="3840" width="8.83203125" style="23"/>
+    <col min="3841" max="3841" width="1.6640625" style="23" customWidth="1"/>
+    <col min="3842" max="3842" width="143.6640625" style="23" customWidth="1"/>
+    <col min="3843" max="4096" width="8.83203125" style="23"/>
+    <col min="4097" max="4097" width="1.6640625" style="23" customWidth="1"/>
+    <col min="4098" max="4098" width="143.6640625" style="23" customWidth="1"/>
+    <col min="4099" max="4352" width="8.83203125" style="23"/>
+    <col min="4353" max="4353" width="1.6640625" style="23" customWidth="1"/>
+    <col min="4354" max="4354" width="143.6640625" style="23" customWidth="1"/>
+    <col min="4355" max="4608" width="8.83203125" style="23"/>
+    <col min="4609" max="4609" width="1.6640625" style="23" customWidth="1"/>
+    <col min="4610" max="4610" width="143.6640625" style="23" customWidth="1"/>
+    <col min="4611" max="4864" width="8.83203125" style="23"/>
+    <col min="4865" max="4865" width="1.6640625" style="23" customWidth="1"/>
+    <col min="4866" max="4866" width="143.6640625" style="23" customWidth="1"/>
+    <col min="4867" max="5120" width="8.83203125" style="23"/>
+    <col min="5121" max="5121" width="1.6640625" style="23" customWidth="1"/>
+    <col min="5122" max="5122" width="143.6640625" style="23" customWidth="1"/>
+    <col min="5123" max="5376" width="8.83203125" style="23"/>
+    <col min="5377" max="5377" width="1.6640625" style="23" customWidth="1"/>
+    <col min="5378" max="5378" width="143.6640625" style="23" customWidth="1"/>
+    <col min="5379" max="5632" width="8.83203125" style="23"/>
+    <col min="5633" max="5633" width="1.6640625" style="23" customWidth="1"/>
+    <col min="5634" max="5634" width="143.6640625" style="23" customWidth="1"/>
+    <col min="5635" max="5888" width="8.83203125" style="23"/>
+    <col min="5889" max="5889" width="1.6640625" style="23" customWidth="1"/>
+    <col min="5890" max="5890" width="143.6640625" style="23" customWidth="1"/>
+    <col min="5891" max="6144" width="8.83203125" style="23"/>
+    <col min="6145" max="6145" width="1.6640625" style="23" customWidth="1"/>
+    <col min="6146" max="6146" width="143.6640625" style="23" customWidth="1"/>
+    <col min="6147" max="6400" width="8.83203125" style="23"/>
+    <col min="6401" max="6401" width="1.6640625" style="23" customWidth="1"/>
+    <col min="6402" max="6402" width="143.6640625" style="23" customWidth="1"/>
+    <col min="6403" max="6656" width="8.83203125" style="23"/>
+    <col min="6657" max="6657" width="1.6640625" style="23" customWidth="1"/>
+    <col min="6658" max="6658" width="143.6640625" style="23" customWidth="1"/>
+    <col min="6659" max="6912" width="8.83203125" style="23"/>
+    <col min="6913" max="6913" width="1.6640625" style="23" customWidth="1"/>
+    <col min="6914" max="6914" width="143.6640625" style="23" customWidth="1"/>
+    <col min="6915" max="7168" width="8.83203125" style="23"/>
+    <col min="7169" max="7169" width="1.6640625" style="23" customWidth="1"/>
+    <col min="7170" max="7170" width="143.6640625" style="23" customWidth="1"/>
+    <col min="7171" max="7424" width="8.83203125" style="23"/>
+    <col min="7425" max="7425" width="1.6640625" style="23" customWidth="1"/>
+    <col min="7426" max="7426" width="143.6640625" style="23" customWidth="1"/>
+    <col min="7427" max="7680" width="8.83203125" style="23"/>
+    <col min="7681" max="7681" width="1.6640625" style="23" customWidth="1"/>
+    <col min="7682" max="7682" width="143.6640625" style="23" customWidth="1"/>
+    <col min="7683" max="7936" width="8.83203125" style="23"/>
+    <col min="7937" max="7937" width="1.6640625" style="23" customWidth="1"/>
+    <col min="7938" max="7938" width="143.6640625" style="23" customWidth="1"/>
+    <col min="7939" max="8192" width="8.83203125" style="23"/>
+    <col min="8193" max="8193" width="1.6640625" style="23" customWidth="1"/>
+    <col min="8194" max="8194" width="143.6640625" style="23" customWidth="1"/>
+    <col min="8195" max="8448" width="8.83203125" style="23"/>
+    <col min="8449" max="8449" width="1.6640625" style="23" customWidth="1"/>
+    <col min="8450" max="8450" width="143.6640625" style="23" customWidth="1"/>
+    <col min="8451" max="8704" width="8.83203125" style="23"/>
+    <col min="8705" max="8705" width="1.6640625" style="23" customWidth="1"/>
+    <col min="8706" max="8706" width="143.6640625" style="23" customWidth="1"/>
+    <col min="8707" max="8960" width="8.83203125" style="23"/>
+    <col min="8961" max="8961" width="1.6640625" style="23" customWidth="1"/>
+    <col min="8962" max="8962" width="143.6640625" style="23" customWidth="1"/>
+    <col min="8963" max="9216" width="8.83203125" style="23"/>
+    <col min="9217" max="9217" width="1.6640625" style="23" customWidth="1"/>
+    <col min="9218" max="9218" width="143.6640625" style="23" customWidth="1"/>
+    <col min="9219" max="9472" width="8.83203125" style="23"/>
+    <col min="9473" max="9473" width="1.6640625" style="23" customWidth="1"/>
+    <col min="9474" max="9474" width="143.6640625" style="23" customWidth="1"/>
+    <col min="9475" max="9728" width="8.83203125" style="23"/>
+    <col min="9729" max="9729" width="1.6640625" style="23" customWidth="1"/>
+    <col min="9730" max="9730" width="143.6640625" style="23" customWidth="1"/>
+    <col min="9731" max="9984" width="8.83203125" style="23"/>
+    <col min="9985" max="9985" width="1.6640625" style="23" customWidth="1"/>
+    <col min="9986" max="9986" width="143.6640625" style="23" customWidth="1"/>
+    <col min="9987" max="10240" width="8.83203125" style="23"/>
+    <col min="10241" max="10241" width="1.6640625" style="23" customWidth="1"/>
+    <col min="10242" max="10242" width="143.6640625" style="23" customWidth="1"/>
+    <col min="10243" max="10496" width="8.83203125" style="23"/>
+    <col min="10497" max="10497" width="1.6640625" style="23" customWidth="1"/>
+    <col min="10498" max="10498" width="143.6640625" style="23" customWidth="1"/>
+    <col min="10499" max="10752" width="8.83203125" style="23"/>
+    <col min="10753" max="10753" width="1.6640625" style="23" customWidth="1"/>
+    <col min="10754" max="10754" width="143.6640625" style="23" customWidth="1"/>
+    <col min="10755" max="11008" width="8.83203125" style="23"/>
+    <col min="11009" max="11009" width="1.6640625" style="23" customWidth="1"/>
+    <col min="11010" max="11010" width="143.6640625" style="23" customWidth="1"/>
+    <col min="11011" max="11264" width="8.83203125" style="23"/>
+    <col min="11265" max="11265" width="1.6640625" style="23" customWidth="1"/>
+    <col min="11266" max="11266" width="143.6640625" style="23" customWidth="1"/>
+    <col min="11267" max="11520" width="8.83203125" style="23"/>
+    <col min="11521" max="11521" width="1.6640625" style="23" customWidth="1"/>
+    <col min="11522" max="11522" width="143.6640625" style="23" customWidth="1"/>
+    <col min="11523" max="11776" width="8.83203125" style="23"/>
+    <col min="11777" max="11777" width="1.6640625" style="23" customWidth="1"/>
+    <col min="11778" max="11778" width="143.6640625" style="23" customWidth="1"/>
+    <col min="11779" max="12032" width="8.83203125" style="23"/>
+    <col min="12033" max="12033" width="1.6640625" style="23" customWidth="1"/>
+    <col min="12034" max="12034" width="143.6640625" style="23" customWidth="1"/>
+    <col min="12035" max="12288" width="8.83203125" style="23"/>
+    <col min="12289" max="12289" width="1.6640625" style="23" customWidth="1"/>
+    <col min="12290" max="12290" width="143.6640625" style="23" customWidth="1"/>
+    <col min="12291" max="12544" width="8.83203125" style="23"/>
+    <col min="12545" max="12545" width="1.6640625" style="23" customWidth="1"/>
+    <col min="12546" max="12546" width="143.6640625" style="23" customWidth="1"/>
+    <col min="12547" max="12800" width="8.83203125" style="23"/>
+    <col min="12801" max="12801" width="1.6640625" style="23" customWidth="1"/>
+    <col min="12802" max="12802" width="143.6640625" style="23" customWidth="1"/>
+    <col min="12803" max="13056" width="8.83203125" style="23"/>
+    <col min="13057" max="13057" width="1.6640625" style="23" customWidth="1"/>
+    <col min="13058" max="13058" width="143.6640625" style="23" customWidth="1"/>
+    <col min="13059" max="13312" width="8.83203125" style="23"/>
+    <col min="13313" max="13313" width="1.6640625" style="23" customWidth="1"/>
+    <col min="13314" max="13314" width="143.6640625" style="23" customWidth="1"/>
+    <col min="13315" max="13568" width="8.83203125" style="23"/>
+    <col min="13569" max="13569" width="1.6640625" style="23" customWidth="1"/>
+    <col min="13570" max="13570" width="143.6640625" style="23" customWidth="1"/>
+    <col min="13571" max="13824" width="8.83203125" style="23"/>
+    <col min="13825" max="13825" width="1.6640625" style="23" customWidth="1"/>
+    <col min="13826" max="13826" width="143.6640625" style="23" customWidth="1"/>
+    <col min="13827" max="14080" width="8.83203125" style="23"/>
+    <col min="14081" max="14081" width="1.6640625" style="23" customWidth="1"/>
+    <col min="14082" max="14082" width="143.6640625" style="23" customWidth="1"/>
+    <col min="14083" max="14336" width="8.83203125" style="23"/>
+    <col min="14337" max="14337" width="1.6640625" style="23" customWidth="1"/>
+    <col min="14338" max="14338" width="143.6640625" style="23" customWidth="1"/>
+    <col min="14339" max="14592" width="8.83203125" style="23"/>
+    <col min="14593" max="14593" width="1.6640625" style="23" customWidth="1"/>
+    <col min="14594" max="14594" width="143.6640625" style="23" customWidth="1"/>
+    <col min="14595" max="14848" width="8.83203125" style="23"/>
+    <col min="14849" max="14849" width="1.6640625" style="23" customWidth="1"/>
+    <col min="14850" max="14850" width="143.6640625" style="23" customWidth="1"/>
+    <col min="14851" max="15104" width="8.83203125" style="23"/>
+    <col min="15105" max="15105" width="1.6640625" style="23" customWidth="1"/>
+    <col min="15106" max="15106" width="143.6640625" style="23" customWidth="1"/>
+    <col min="15107" max="15360" width="8.83203125" style="23"/>
+    <col min="15361" max="15361" width="1.6640625" style="23" customWidth="1"/>
+    <col min="15362" max="15362" width="143.6640625" style="23" customWidth="1"/>
+    <col min="15363" max="15616" width="8.83203125" style="23"/>
+    <col min="15617" max="15617" width="1.6640625" style="23" customWidth="1"/>
+    <col min="15618" max="15618" width="143.6640625" style="23" customWidth="1"/>
+    <col min="15619" max="15872" width="8.83203125" style="23"/>
+    <col min="15873" max="15873" width="1.6640625" style="23" customWidth="1"/>
+    <col min="15874" max="15874" width="143.6640625" style="23" customWidth="1"/>
+    <col min="15875" max="16128" width="8.83203125" style="23"/>
+    <col min="16129" max="16129" width="1.6640625" style="23" customWidth="1"/>
+    <col min="16130" max="16130" width="143.6640625" style="23" customWidth="1"/>
+    <col min="16131" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="16" customFormat="1" ht="17">
-      <c r="B1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="2:8" s="19" customFormat="1" ht="24" customHeight="1">
-      <c r="B2" s="20" t="s">
-        <v>15</v>
+    <row r="1" spans="2:8" s="18" customFormat="1" ht="17">
+      <c r="B1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="2:8" s="21" customFormat="1" ht="24" customHeight="1">
+      <c r="B2" s="22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="6" customHeight="1"/>
     <row r="4" spans="2:8" ht="16" thickBot="1">
-      <c r="B4" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" s="24" customFormat="1" ht="9">
-      <c r="B5" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="26" customFormat="1" ht="9">
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="26" customFormat="1" ht="9">
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="2:8" ht="26.25" customHeight="1">
+      <c r="B8" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="26" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="2:8" ht="33.75" customHeight="1">
+      <c r="B10" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="26" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="2:8" ht="41.25" customHeight="1">
+      <c r="B12" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" spans="2:8" ht="24">
+      <c r="B14" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="24" customFormat="1" ht="9">
-      <c r="B7" s="25"/>
-    </row>
-    <row r="8" spans="2:8" ht="26.25" customHeight="1">
-      <c r="B8" s="27" t="s">
+    <row r="15" spans="2:8">
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="29" customFormat="1" ht="16" thickBot="1">
+      <c r="B18" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="24" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B9" s="25"/>
-    </row>
-    <row r="10" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B10" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="24" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B11" s="25"/>
-    </row>
-    <row r="12" spans="2:8" ht="41.25" customHeight="1">
-      <c r="B12" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="27"/>
-    </row>
-    <row r="14" spans="2:8" ht="24">
-      <c r="B14" s="27" t="s">
+    <row r="19" spans="2:2" s="26" customFormat="1" ht="5.25" customHeight="1">
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="26" customFormat="1" ht="5.25" customHeight="1">
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="27"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" s="26" customFormat="1" ht="16" thickBot="1">
-      <c r="B19" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" s="24" customFormat="1" ht="5.25" customHeight="1">
-      <c r="B20" s="25"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" s="24" customFormat="1" ht="5.25" customHeight="1">
-      <c r="B22" s="25"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="28"/>
-    </row>
-    <row r="25" spans="2:2" ht="34.5" customHeight="1">
-      <c r="B25" s="27"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="63" t="s">
-        <v>40</v>
+    <row r="25" spans="2:2">
+      <c r="B25" s="31"/>
+    </row>
+    <row r="26" spans="2:2" s="29" customFormat="1" ht="16" thickBot="1">
+      <c r="B26" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="34.5" customHeight="1">
+      <c r="B27" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="34.5" customHeight="1">
+      <c r="B28" s="30"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="69" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId1" display=" - Most recent version of this form will always be available here: http://development.home.infor.com/pmprojects/Organizational%20Readiness%20Documents/Forms/AllItems.aspx "/>
+    <hyperlink ref="B23" r:id="rId2" display=" - Most recent version of this form will always be available here: http://development.home.infor.com/pmprojects/Organizational%20Readiness%20Documents/Forms/AllItems.aspx "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5006,10 +6709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -5022,125 +6725,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="21">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="13" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="16" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13" thickTop="1">
-      <c r="A6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="5">
-        <v>41787</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14" thickTop="1">
+      <c r="A6" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="90">
+        <v>41019</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13">
+      <c r="A7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="90">
+        <v>41130</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5165,222 +6904,190 @@
   </sheetPr>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="45.5" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="27.1640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="35" style="14" customWidth="1"/>
-    <col min="13" max="13" width="35.33203125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="82.33203125" style="84" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="14"/>
+    <col min="1" max="1" width="35.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="49" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="45.5" style="16" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="35" style="16" customWidth="1"/>
+    <col min="13" max="13" width="35.33203125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="82.33203125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="80"/>
+      <c r="A1" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="80"/>
-    </row>
-    <row r="3" spans="1:14" s="34" customFormat="1" ht="19">
-      <c r="A3" s="71" t="s">
+      <c r="A2" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+    </row>
+    <row r="3" spans="1:14" s="38" customFormat="1" ht="19">
+      <c r="A3" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="43"/>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="1:14" s="42" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="38"/>
-      <c r="N3" s="81"/>
-    </row>
-    <row r="4" spans="1:14" s="37" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="J4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="82" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="33" t="s">
+      <c r="E5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="84"/>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="39"/>
+    </row>
+    <row r="6" spans="1:14" s="14" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" s="14" customFormat="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5388,57 +7095,31 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="84"/>
-    </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="44">
-      <c r="A8" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="84"/>
-    </row>
-    <row r="9" spans="1:14" s="13" customFormat="1">
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" s="14" customFormat="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" s="14" customFormat="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -5446,15 +7127,15 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="84"/>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1">
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" s="14" customFormat="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="39"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -5462,15 +7143,15 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="84"/>
-    </row>
-    <row r="11" spans="1:14" s="13" customFormat="1">
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="14" customFormat="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -5478,15 +7159,15 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="84"/>
-    </row>
-    <row r="12" spans="1:14" s="13" customFormat="1">
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" s="14" customFormat="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="39"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -5494,15 +7175,15 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="84"/>
-    </row>
-    <row r="13" spans="1:14" s="13" customFormat="1">
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" s="14" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="39"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -5510,15 +7191,15 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="84"/>
-    </row>
-    <row r="14" spans="1:14" s="13" customFormat="1">
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" s="14" customFormat="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="40"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -5526,14 +7207,14 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="84"/>
-    </row>
-    <row r="15" spans="1:14" s="13" customFormat="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="40"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" s="14" customFormat="1">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -5541,14 +7222,14 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="84"/>
-    </row>
-    <row r="16" spans="1:14" s="13" customFormat="1">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="40"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" s="14" customFormat="1">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5556,14 +7237,14 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="84"/>
-    </row>
-    <row r="17" spans="2:14" s="13" customFormat="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="40"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="2:14" s="14" customFormat="1">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -5571,14 +7252,14 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="84"/>
-    </row>
-    <row r="18" spans="2:14" s="13" customFormat="1">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="40"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="2:14" s="14" customFormat="1">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -5586,14 +7267,14 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="84"/>
-    </row>
-    <row r="19" spans="2:14" s="13" customFormat="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="39"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="2:14" s="14" customFormat="1">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -5601,14 +7282,14 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="84"/>
-    </row>
-    <row r="20" spans="2:14" s="13" customFormat="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="39"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="2:14" s="14" customFormat="1">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -5616,14 +7297,14 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="84"/>
-    </row>
-    <row r="21" spans="2:14" s="13" customFormat="1">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="39"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="2:14" s="14" customFormat="1">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -5631,14 +7312,14 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="84"/>
-    </row>
-    <row r="22" spans="2:14" s="13" customFormat="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="39"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="2:14" s="14" customFormat="1">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -5646,164 +7327,160 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="84"/>
-    </row>
-    <row r="23" spans="2:14" s="13" customFormat="1">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="N23" s="84"/>
-    </row>
-    <row r="24" spans="2:14" s="13" customFormat="1">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="N24" s="84"/>
-    </row>
-    <row r="25" spans="2:14" s="13" customFormat="1">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="N25" s="84"/>
-    </row>
-    <row r="26" spans="2:14" s="13" customFormat="1">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="N26" s="84"/>
-    </row>
-    <row r="27" spans="2:14" s="13" customFormat="1">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="N27" s="84"/>
-    </row>
-    <row r="28" spans="2:14" s="13" customFormat="1">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="N28" s="84"/>
-    </row>
-    <row r="29" spans="2:14" s="13" customFormat="1">
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="N29" s="84"/>
-    </row>
-    <row r="30" spans="2:14" s="13" customFormat="1">
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="N30" s="84"/>
-    </row>
-    <row r="31" spans="2:14" s="13" customFormat="1">
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="N31" s="84"/>
-    </row>
-    <row r="32" spans="2:14" s="13" customFormat="1">
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="N32" s="84"/>
-    </row>
-    <row r="33" spans="1:14" s="13" customFormat="1">
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="N33" s="84"/>
-    </row>
-    <row r="34" spans="1:14" s="13" customFormat="1">
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="N34" s="84"/>
-    </row>
-    <row r="35" spans="1:14" s="13" customFormat="1">
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="N35" s="84"/>
-    </row>
-    <row r="36" spans="1:14" s="13" customFormat="1">
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="N36" s="84"/>
-    </row>
-    <row r="37" spans="1:14" s="13" customFormat="1">
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="N37" s="84"/>
-    </row>
-    <row r="38" spans="1:14" s="13" customFormat="1">
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="N38" s="84"/>
-    </row>
-    <row r="39" spans="1:14" s="13" customFormat="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="F39" s="42"/>
-      <c r="N39" s="84"/>
-    </row>
-    <row r="40" spans="1:14" s="13" customFormat="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="N40" s="84"/>
-    </row>
-    <row r="41" spans="1:14" s="13" customFormat="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="N41" s="84"/>
-    </row>
-    <row r="42" spans="1:14" s="13" customFormat="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="N42" s="84"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="2:14" s="14" customFormat="1">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="2:14" s="14" customFormat="1">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="2:14" s="14" customFormat="1">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="2:14" s="14" customFormat="1">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="2:14" s="14" customFormat="1">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="2:14" s="14" customFormat="1">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="2:14" s="14" customFormat="1">
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="2:14" s="14" customFormat="1">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="2:14" s="14" customFormat="1">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="2:14" s="14" customFormat="1">
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" s="14" customFormat="1">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" s="14" customFormat="1">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="F34" s="47"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14" s="14" customFormat="1">
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14" s="14" customFormat="1">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14" s="14" customFormat="1">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14" s="14" customFormat="1">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="F38" s="47"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" s="14" customFormat="1">
+      <c r="A39" s="16"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" s="14" customFormat="1">
+      <c r="A40" s="16"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:14" s="14" customFormat="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:14" s="14" customFormat="1">
+      <c r="A42" s="16"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="N42" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection password="CD29" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="56" fitToWidth="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CCopyright © 2005 Lawson  Software Inc. all rights reserved</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5813,6 +7490,1671 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="45.5" style="48" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="16" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="82.33203125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.5" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.5" customHeight="1">
+      <c r="A2" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+    </row>
+    <row r="3" spans="1:14" s="38" customFormat="1" ht="17" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="43"/>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="1:14" s="42" customFormat="1" ht="34.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="109" customFormat="1" ht="17.5" customHeight="1">
+      <c r="A5" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A6" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="94">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C6" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A7" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="94">
+        <v>1.9</v>
+      </c>
+      <c r="C7" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A8" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="94">
+        <v>2</v>
+      </c>
+      <c r="C8" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A9" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="94">
+        <v>1</v>
+      </c>
+      <c r="C9" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A10" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A11" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A12" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A13" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="103">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A14" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="103">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C14" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A15" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="103">
+        <v>1</v>
+      </c>
+      <c r="C15" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A16" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="103">
+        <v>1</v>
+      </c>
+      <c r="C16" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A17" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="103">
+        <v>1</v>
+      </c>
+      <c r="C17" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A18" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D18" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A19" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A20" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="114">
+        <v>41018</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A21" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="114">
+        <v>41018</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A22" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="114">
+        <v>41295</v>
+      </c>
+      <c r="D22" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A23" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="114">
+        <v>41130</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="13">
+        <v>3</v>
+      </c>
+      <c r="C24" s="117">
+        <v>41002</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="F25" s="86"/>
+      <c r="H25" s="1"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="H26" s="1"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="H27" s="1"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="H28" s="1"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="H29" s="87"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="H30" s="87"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="H31" s="87"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="F34" s="47"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="F38" s="47"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A39" s="16"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A40" s="16"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="N41" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId2" display="https://github.com/mleibman/SlickGrid/blob/master/MIT-LICENSE.txt"/>
+    <hyperlink ref="E14" r:id="rId3" display="https://github.com/vakata/jstree/blob/v.1.0/LICENSE-MIT"/>
+    <hyperlink ref="E15" r:id="rId4" display="https://github.com/jquery/globalize/blob/master/LICENSE"/>
+    <hyperlink ref="E18" r:id="rId5" display="http://www.opensource.org/licenses/mit-license.php"/>
+    <hyperlink ref="E20" r:id="rId6" display="http://modernizr.com/license/"/>
+    <hyperlink ref="E21" r:id="rId7" display="http://www.opensource.org/licenses/mit-license.php"/>
+    <hyperlink ref="E7" r:id="rId8"/>
+    <hyperlink ref="E12" r:id="rId9" display="http://www.opensource.org/licenses/mit-license.php"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://github.com/brandonaaron/jquery-mousewheel/blob/master/LICENSE.txt"/>
+    <hyperlink ref="E16" r:id="rId11" display="http://www.opensource.org/licenses/mit-license.php"/>
+    <hyperlink ref="D18" r:id="rId12"/>
+    <hyperlink ref="E19" r:id="rId13" display="http://www.opensource.org/licenses/mit-license.php"/>
+    <hyperlink ref="D21" r:id="rId14"/>
+    <hyperlink ref="E22" r:id="rId15" display="http://www.opensource.org/licenses/mit-license.php"/>
+    <hyperlink ref="E23" r:id="rId16" display="http://www.opensource.org/licenses/mit-license.php"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="5" scale="56" fitToWidth="2" orientation="landscape"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;CCopyright © 2005 Lawson  Software Inc. all rights reserved</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId17"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="45.5" style="48" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="16" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="82.33203125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.5" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.5" customHeight="1">
+      <c r="A2" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+    </row>
+    <row r="3" spans="1:14" s="38" customFormat="1" ht="17" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="43"/>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="1:14" s="42" customFormat="1" ht="34.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="109" customFormat="1" ht="17.5" customHeight="1">
+      <c r="A5" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A6" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="94">
+        <v>2.13</v>
+      </c>
+      <c r="C6" s="95">
+        <v>40909</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+      <c r="A7" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="114">
+        <v>41018</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3</v>
+      </c>
+      <c r="C8" s="117">
+        <v>41002</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="118">
+        <v>41576</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="118">
+        <v>41576</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="H11" s="87"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="H12" s="87"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="H13" s="87"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="N23" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2" display="http://www.opensource.org/licenses/mit-license.php"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="5" scale="56" fitToWidth="2" orientation="landscape"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;CCopyright © 2005 Lawson  Software Inc. all rights reserved</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId4"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5827,306 +9169,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0C18216B433D84081585CFBA8E6BF3D" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11a09d296796347a722cf6c487228e35">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9cb38a07-cd63-4f8c-a12d-020ae91d3df5" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c56c55d44201a4437d9733ccd8e8a434" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="9cb38a07-cd63-4f8c-a12d-020ae91d3df5"/>
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns1:EmailSender" minOccurs="0"/>
-                <xsd:element ref="ns1:EmailTo" minOccurs="0"/>
-                <xsd:element ref="ns1:EmailCc" minOccurs="0"/>
-                <xsd:element ref="ns1:EmailFrom" minOccurs="0"/>
-                <xsd:element ref="ns1:EmailSubject" minOccurs="0"/>
-                <xsd:element ref="ns2:Product_x0020_Family" minOccurs="0"/>
-                <xsd:element ref="ns3:EmailHeaders" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="EmailSender" ma:index="10" nillable="true" ma:displayName="E-Mail Sender" ma:hidden="true" ma:internalName="EmailSender">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="EmailTo" ma:index="11" nillable="true" ma:displayName="E-Mail To" ma:hidden="true" ma:internalName="EmailTo">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="EmailCc" ma:index="12" nillable="true" ma:displayName="E-Mail Cc" ma:hidden="true" ma:internalName="EmailCc">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="EmailFrom" ma:index="13" nillable="true" ma:displayName="E-Mail From" ma:hidden="true" ma:internalName="EmailFrom">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="EmailSubject" ma:index="14" nillable="true" ma:displayName="E-Mail Subject" ma:hidden="true" ma:internalName="EmailSubject">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9cb38a07-cd63-4f8c-a12d-020ae91d3df5" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Product_x0020_Family" ma:index="16" nillable="true" ma:displayName="Product Family" ma:description="Product Family" ma:format="Dropdown" ma:internalName="Product_x0020_Family">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="4SH-Fourth Shift"/>
-          <xsd:enumeration value="A Plus Products"/>
-          <xsd:enumeration value="AAP Aprova Products"/>
-          <xsd:enumeration value="Adage Products"/>
-          <xsd:enumeration value="AMSI Products"/>
-          <xsd:enumeration value="Anael Products"/>
-          <xsd:enumeration value="BI MIS"/>
-          <xsd:enumeration value="CPM MPC Products"/>
-          <xsd:enumeration value="EAM Products"/>
-          <xsd:enumeration value="ELN-LN Products"/>
-          <xsd:enumeration value="ELX-LX Products"/>
-          <xsd:enumeration value="ENS-Enspire Products"/>
-          <xsd:enumeration value="EPI-Epiphany  Products"/>
-          <xsd:enumeration value="EPT-Epitome"/>
-          <xsd:enumeration value="EST-eStorefront Products"/>
-          <xsd:enumeration value="EVL-Evolution"/>
-          <xsd:enumeration value="EXA-XA Products"/>
-          <xsd:enumeration value="EXM-EXP Mgmt Products"/>
-          <xsd:enumeration value="FAC-FACTS Products"/>
-          <xsd:enumeration value="FMS-Infor FMS Products"/>
-          <xsd:enumeration value="FNI-F9 Products"/>
-          <xsd:enumeration value="HAN-Hansen Products"/>
-          <xsd:enumeration value="HM-Lawson Healthcare Products"/>
-          <xsd:enumeration value="HMS-HMS Products"/>
-          <xsd:enumeration value="INF-Infinium Products"/>
-          <xsd:enumeration value="Infor Lawson"/>
-          <xsd:enumeration value="ION-ION Products"/>
-          <xsd:enumeration value="IRS-Ironside Products"/>
-          <xsd:enumeration value="IWS-Infor Workspace"/>
-          <xsd:enumeration value="LIB-Library Products"/>
-          <xsd:enumeration value="M3A-M3 Applications"/>
-          <xsd:enumeration value="MBI-Infor Motion Products"/>
-          <xsd:enumeration value="OPT-Optivia Products"/>
-          <xsd:enumeration value="PEG-Pegasus Products"/>
-          <xsd:enumeration value="PLM-PLM8 Products"/>
-          <xsd:enumeration value="PRV-Provia Products"/>
-          <xsd:enumeration value="PRZ-Prism Products"/>
-          <xsd:enumeration value="PSF-EnRoute Products"/>
-          <xsd:enumeration value="PWY-Pathway Products"/>
-          <xsd:enumeration value="RLG-Restaurants Products"/>
-          <xsd:enumeration value="RUN-Runtime Products"/>
-          <xsd:enumeration value="S21-System21 Products"/>
-          <xsd:enumeration value="SMS-SmartStream Products"/>
-          <xsd:enumeration value="SOP-Sales and Operations Planning Products"/>
-          <xsd:enumeration value="SPR-Spear Products"/>
-          <xsd:enumeration value="STL-Streamline Products"/>
-          <xsd:enumeration value="SUN-SunSystems Products"/>
-          <xsd:enumeration value="SWB-SupplyWEB Products"/>
-          <xsd:enumeration value="SXE-SX.e Products"/>
-          <xsd:enumeration value="SYT-SyteLine Products"/>
-          <xsd:enumeration value="TFM-TRANS4M Products"/>
-          <xsd:enumeration value="VSL-VISUAL Products"/>
-          <xsd:enumeration value="WFM-WFM Products"/>
-          <xsd:enumeration value="WMS-SCE (WMS)"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="EmailHeaders" ma:index="18" nillable="true" ma:displayName="E-Mail Headers" ma:hidden="true" ma:internalName="EmailHeaders">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="4" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Product_x0020_Family xmlns="9cb38a07-cd63-4f8c-a12d-020ae91d3df5" xsi:nil="true"/>
-    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailHeaders xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2C56FE-8A4A-4B0D-AD7A-E82F32FD2880}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE526F-471E-4058-87C5-87F18D81D27F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9cb38a07-cd63-4f8c-a12d-020ae91d3df5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B19C345C-5DBA-4670-BA74-431EF4A063C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9cb38a07-cd63-4f8c-a12d-020ae91d3df5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SoHo XI.xlsx
+++ b/SoHo XI.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-42680" yWindow="-11120" windowWidth="32860" windowHeight="18440" tabRatio="858" activeTab="5"/>
+    <workbookView xWindow="-9060" yWindow="-24640" windowWidth="25600" windowHeight="16060" tabRatio="858" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Open Source Policy" sheetId="4" r:id="rId1"/>
@@ -1750,7 +1750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="151">
   <si>
     <t>MODIFICATION HISTORY</t>
   </si>
@@ -2437,9 +2437,6 @@
     <t>Grunt Js</t>
   </si>
   <si>
-    <t>.0.4.1</t>
-  </si>
-  <si>
     <t>Used to build Infor Source Code</t>
   </si>
   <si>
@@ -2462,6 +2459,18 @@
   </si>
   <si>
     <t>Used to build and Test and Host Infor Source Code</t>
+  </si>
+  <si>
+    <t>Hogan</t>
+  </si>
+  <si>
+    <t>Rivets</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>0.4.1</t>
   </si>
 </sst>
 </file>
@@ -8663,7 +8672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0"/>
@@ -8924,7 +8933,7 @@
         <v>133</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="86" t="s">
         <v>107</v>
@@ -8957,7 +8966,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C9" s="118">
         <v>41576</v>
@@ -8966,7 +8975,7 @@
         <v>137</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="86" t="s">
         <v>109</v>
@@ -8978,10 +8987,10 @@
         <v>109</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>109</v>
@@ -8996,19 +9005,19 @@
     </row>
     <row r="10" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
       <c r="A10" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
         <v>143</v>
-      </c>
-      <c r="B10" t="s">
-        <v>144</v>
       </c>
       <c r="C10" s="118">
         <v>41576</v>
       </c>
       <c r="D10" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="F10" s="86" t="s">
         <v>109</v>
@@ -9020,10 +9029,10 @@
         <v>109</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>109</v>
@@ -9037,6 +9046,9 @@
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
@@ -9045,6 +9057,9 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -9053,6 +9068,9 @@
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>

--- a/SoHo XI.xlsx
+++ b/SoHo XI.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26915"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmcconechy/Dev/controls/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9060" yWindow="-24640" windowWidth="25600" windowHeight="16060" tabRatio="858" activeTab="5"/>
+    <workbookView xWindow="-38960" yWindow="-14340" windowWidth="34860" windowHeight="21200" tabRatio="858" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Open Source Policy" sheetId="4" r:id="rId1"/>
@@ -12,11 +17,15 @@
     <sheet name="History and Approvals" sheetId="2" r:id="rId3"/>
     <sheet name="Open Source Survey" sheetId="1" r:id="rId4"/>
     <sheet name="Infor Html5 Controls v3.0" sheetId="6" r:id="rId5"/>
-    <sheet name="Infor Html5 Controls v3.2" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
+    <sheet name="Infor Html5 Controls v3.2" sheetId="8" r:id="rId6"/>
+    <sheet name="Infor Html5 Controls v4.2.1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1749,8 +1758,583 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Andrew Hall</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A. OSS Component</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please provide the names of the OSS Components used or distributed in connection with our Product, including any development tools (e.g., debuggers, compilers, SDKs), libraries, applications, and other OSS Components.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>B. OSS Version</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please provide the version numbers for the OSS Component.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C. Date</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please provide the date that the OSS Component was last downloaded and placed into the company's software repository.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">D. Provider/Source
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Please provide the hypertext link (URL) to the website, ftp site, or other source of the OSS Components.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E. License/Link</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please identify the applicable OSS License (e.g., Apache 2.0, LGPL 2.1) and  provide link (URL) directly to the OSS license terms covering the Component.  
+Do NOT provide a link to the to source of OSS, which is to be provided in Column D; instead, link directly to the OSS license terms. 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">F. Sub-Components  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If the OSS Component is a sub-component of another OSS Component or includes other OSS Components, please identify those OSS Components and the relationship between the OSS Components.  (e.g., OSS Component A incorporates/depends on OSS Component B)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>G. Distribution</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NOTE: THIS IS A 2-PART QUESTION. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Part 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.  Please indicate, with a "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YES</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>" or "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">", whether this OSS Component will be distributed to Infor customers or others outside the company.  Please note that providing access to the software in a hosted environment, but not providing a copy of the software, does not constitute distribution.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Part 2. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> If the answer to Part 1 is "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YES</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">", please describe how the OSS Components will be distributed by Info outside the company, by picking the appropriate a letter below or by providing a description of the distribution.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(A)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Infor will be providing the OSS as a bundled, embedded or linked module to the Infor software.   
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(B)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Infor will be providing the OSS as a standalone, separate program. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(C)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> The customer will be directed to a separate site for a separate download of the OSS. 
+For example, if Infor provides the OSS Component embedded within Infor products, the entry for such component is "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YES (A)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">".
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">H. Redistribution </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please indicate whether the OSS Component will be redistributed by our customer or others outside the Company.  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(Typically, the answer here should be NO)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>I. Interaction with Company Code</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please indicate how the OSS Component will interact with the Infor Product(s).  
+Examples of interaction descriptions include: 
+(i) OSS is a standalone program, 
+(ii) OSS statically linked to, 
+(iii) OSS dynamically linked to,
+(iv) OSS directly combined with Infor source code, 
+(v) OSS passes data to Infor software through files.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>J. Purpose</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Describe the purpose for using the OSS Component.
+Examples of purpose descriptions include:
+(i) Web server
+(ii) PDF creation/ manipulation
+(iii) Data encryption
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L. Modifications.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Please indicate whether any modifications have been or will be made to the OSS.  If so, please describe the nature of those modifications.  
+Examples of modification descriptions include:
+(i) bug fixes,
+(ii) functional enhancements,
+(iii) ported to another platform.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note: Written Approval Required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Infor's current OSS Policy does NOT permit contributions without specific written approval. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: Do NOT Remove Notices from OSS
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copyright notices, disclaimers, and similar notices should NOT be removed from the OSS source code or other OSS materials.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In addition to the requirements set forth below, most OSS license terms require inclusion of the appropriate copyright notices, notices of attribution to the author, and a copy of the OSS license, including all required disclaimers, as set forth in the OSS license agreement. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="152">
   <si>
     <t>MODIFICATION HISTORY</t>
   </si>
@@ -2461,16 +3045,19 @@
     <t>Used to build and Test and Host Infor Source Code</t>
   </si>
   <si>
-    <t>Hogan</t>
-  </si>
-  <si>
-    <t>Rivets</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
     <t>0.4.1</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>Cheryl Brinkman</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Changed Jquery Version, Removed Dev only Dependencies and added new Tab for 4.2.1</t>
   </si>
 </sst>
 </file>
@@ -2903,7 +3490,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -3272,6 +3859,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -5968,14 +6558,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -6285,9 +6875,9 @@
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B1" s="57"/>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
@@ -6307,7 +6897,7 @@
       <c r="P1" s="58"/>
       <c r="Q1" s="59"/>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -6327,7 +6917,7 @@
       <c r="P2" s="56"/>
       <c r="Q2" s="62"/>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="63"/>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
@@ -6351,11 +6941,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6367,7 +6952,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="23" customWidth="1"/>
     <col min="2" max="2" width="143.6640625" style="24" customWidth="1"/>
@@ -6563,7 +7148,7 @@
     <col min="16131" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="18" customFormat="1" ht="17">
+    <row r="1" spans="2:8" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
@@ -6574,128 +7159,128 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="2:8" s="21" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="2:8" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="6" customHeight="1"/>
-    <row r="4" spans="2:8" ht="16" thickBot="1">
+    <row r="3" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="26" customFormat="1" ht="9">
+    <row r="5" spans="2:8" s="26" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="B5" s="27"/>
     </row>
-    <row r="6" spans="2:8" ht="33.75" customHeight="1">
+    <row r="6" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="26" customFormat="1" ht="9">
+    <row r="7" spans="2:8" s="26" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="B7" s="27"/>
     </row>
-    <row r="8" spans="2:8" ht="26.25" customHeight="1">
+    <row r="8" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="9" spans="2:8" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="27"/>
     </row>
-    <row r="10" spans="2:8" ht="33.75" customHeight="1">
+    <row r="10" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="11" spans="2:8" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="2:8" ht="41.25" customHeight="1">
+    <row r="12" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="30"/>
     </row>
-    <row r="14" spans="2:8" ht="24">
+    <row r="14" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B14" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="29" customFormat="1" ht="16" thickBot="1">
+    <row r="18" spans="2:2" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:2" s="26" customFormat="1" ht="5.25" customHeight="1">
+    <row r="19" spans="2:2" s="26" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:2" s="26" customFormat="1" ht="5.25" customHeight="1">
+    <row r="21" spans="2:2" s="26" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="27"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="31"/>
     </row>
-    <row r="26" spans="2:2" s="29" customFormat="1" ht="16" thickBot="1">
+    <row r="26" spans="2:2" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="34.5" customHeight="1">
+    <row r="27" spans="2:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="34.5" customHeight="1">
+    <row r="28" spans="2:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="30"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="68" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="69" t="s">
         <v>48</v>
       </c>
@@ -6708,11 +7293,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6720,11 +7300,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="62.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -6733,7 +7313,7 @@
     <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="51"/>
       <c r="B1" s="51"/>
       <c r="C1" s="52" t="s">
@@ -6743,7 +7323,7 @@
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="C2" s="53" t="s">
@@ -6753,7 +7333,7 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" ht="21">
+    <row r="3" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="119" t="s">
         <v>0</v>
       </c>
@@ -6763,14 +7343,14 @@
       <c r="E3" s="120"/>
       <c r="F3" s="50"/>
     </row>
-    <row r="4" spans="1:6" ht="13" thickBot="1">
+    <row r="4" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="16" thickTop="1" thickBot="1">
+    <row r="5" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -6790,7 +7370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14" thickTop="1">
+    <row r="6" spans="1:6" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="89" t="s">
         <v>113</v>
       </c>
@@ -6810,7 +7390,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>114</v>
       </c>
@@ -6828,7 +7408,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="5"/>
       <c r="C8" s="91" t="s">
@@ -6837,20 +7417,26 @@
       <c r="D8" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="121" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>151</v>
+      </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="5"/>
       <c r="C10" s="11"/>
@@ -6858,7 +7444,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
@@ -6866,7 +7452,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="5"/>
       <c r="C12" s="11"/>
@@ -6874,7 +7460,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
@@ -6882,7 +7468,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="5"/>
       <c r="C14" s="8"/>
@@ -6898,11 +7484,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="75" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6918,7 +7499,7 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="16" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="48" customWidth="1"/>
@@ -6937,7 +7518,7 @@
     <col min="15" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>55</v>
       </c>
@@ -6955,7 +7536,7 @@
       <c r="M1" s="54"/>
       <c r="N1" s="55"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="82" t="s">
         <v>56</v>
       </c>
@@ -6973,7 +7554,7 @@
       <c r="M2" s="54"/>
       <c r="N2" s="55"/>
     </row>
-    <row r="3" spans="1:14" s="38" customFormat="1" ht="19">
+    <row r="3" spans="1:14" s="38" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>14</v>
       </c>
@@ -6986,7 +7567,7 @@
       <c r="F3" s="43"/>
       <c r="N3" s="39"/>
     </row>
-    <row r="4" spans="1:14" s="42" customFormat="1" ht="36.75" customHeight="1">
+    <row r="4" spans="1:14" s="42" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
@@ -7030,7 +7611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="43.5" customHeight="1">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34" t="s">
         <v>36</v>
       </c>
@@ -7074,7 +7655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="14" customFormat="1" ht="38.25" customHeight="1">
+    <row r="6" spans="1:14" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7090,7 +7671,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:14" s="14" customFormat="1">
+    <row r="7" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7106,7 +7687,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7122,7 +7703,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:14" s="14" customFormat="1">
+    <row r="9" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -7138,7 +7719,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="1:14" s="14" customFormat="1">
+    <row r="10" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7154,7 +7735,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="15"/>
     </row>
-    <row r="11" spans="1:14" s="14" customFormat="1">
+    <row r="11" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -7170,7 +7751,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:14" s="14" customFormat="1">
+    <row r="12" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -7186,7 +7767,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="1:14" s="14" customFormat="1">
+    <row r="13" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -7202,7 +7783,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="14" customFormat="1">
+    <row r="14" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7218,7 +7799,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" s="14" customFormat="1">
+    <row r="15" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -7233,7 +7814,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" s="14" customFormat="1">
+    <row r="16" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -7248,7 +7829,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="15"/>
     </row>
-    <row r="17" spans="2:14" s="14" customFormat="1">
+    <row r="17" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -7263,7 +7844,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="15"/>
     </row>
-    <row r="18" spans="2:14" s="14" customFormat="1">
+    <row r="18" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -7278,7 +7859,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="2:14" s="14" customFormat="1">
+    <row r="19" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -7293,7 +7874,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="2:14" s="14" customFormat="1">
+    <row r="20" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -7308,7 +7889,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="2:14" s="14" customFormat="1">
+    <row r="21" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -7323,7 +7904,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="2:14" s="14" customFormat="1">
+    <row r="22" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -7338,119 +7919,119 @@
       <c r="M22" s="1"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="2:14" s="14" customFormat="1">
+    <row r="23" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
       <c r="F23" s="47"/>
       <c r="N23" s="15"/>
     </row>
-    <row r="24" spans="2:14" s="14" customFormat="1">
+    <row r="24" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
       <c r="F24" s="47"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="2:14" s="14" customFormat="1">
+    <row r="25" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="F25" s="47"/>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="2:14" s="14" customFormat="1">
+    <row r="26" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
       <c r="F26" s="47"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="2:14" s="14" customFormat="1">
+    <row r="27" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
       <c r="F27" s="47"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="2:14" s="14" customFormat="1">
+    <row r="28" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
       <c r="F28" s="47"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="2:14" s="14" customFormat="1">
+    <row r="29" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
       <c r="F29" s="47"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="2:14" s="14" customFormat="1">
+    <row r="30" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="F30" s="47"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="2:14" s="14" customFormat="1">
+    <row r="31" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
       <c r="F31" s="47"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="2:14" s="14" customFormat="1">
+    <row r="32" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
       <c r="F32" s="47"/>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:14" s="14" customFormat="1">
+    <row r="33" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
       <c r="F33" s="47"/>
       <c r="N33" s="15"/>
     </row>
-    <row r="34" spans="1:14" s="14" customFormat="1">
+    <row r="34" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
       <c r="F34" s="47"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:14" s="14" customFormat="1">
+    <row r="35" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
       <c r="F35" s="47"/>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" s="14" customFormat="1">
+    <row r="36" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="46"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
       <c r="F36" s="47"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="1:14" s="14" customFormat="1">
+    <row r="37" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
       <c r="F37" s="47"/>
       <c r="N37" s="15"/>
     </row>
-    <row r="38" spans="1:14" s="14" customFormat="1">
+    <row r="38" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="46"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
       <c r="F38" s="47"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" s="14" customFormat="1">
+    <row r="39" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -7458,7 +8039,7 @@
       <c r="F39" s="47"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:14" s="14" customFormat="1">
+    <row r="40" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -7466,7 +8047,7 @@
       <c r="F40" s="47"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:14" s="14" customFormat="1">
+    <row r="41" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
@@ -7474,7 +8055,7 @@
       <c r="F41" s="47"/>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="1:14" s="14" customFormat="1">
+    <row r="42" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -7490,11 +8071,6 @@
     <oddFooter>&amp;CCopyright © 2005 Lawson  Software Inc. all rights reserved</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7510,7 +8086,7 @@
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="16" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="48" customWidth="1"/>
@@ -7529,7 +8105,7 @@
     <col min="15" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.5" customHeight="1">
+    <row r="1" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>55</v>
       </c>
@@ -7547,7 +8123,7 @@
       <c r="M1" s="54"/>
       <c r="N1" s="55"/>
     </row>
-    <row r="2" spans="1:14" ht="17.5" customHeight="1">
+    <row r="2" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="82" t="s">
         <v>56</v>
       </c>
@@ -7565,7 +8141,7 @@
       <c r="M2" s="54"/>
       <c r="N2" s="55"/>
     </row>
-    <row r="3" spans="1:14" s="38" customFormat="1" ht="17" customHeight="1">
+    <row r="3" spans="1:14" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>14</v>
       </c>
@@ -7578,7 +8154,7 @@
       <c r="F3" s="43"/>
       <c r="N3" s="39"/>
     </row>
-    <row r="4" spans="1:14" s="42" customFormat="1" ht="34.25" customHeight="1">
+    <row r="4" spans="1:14" s="42" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
@@ -7622,7 +8198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="109" customFormat="1" ht="17.5" customHeight="1">
+    <row r="5" spans="1:14" s="109" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="106" t="s">
         <v>36</v>
       </c>
@@ -7666,7 +8242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="6" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="93" t="s">
         <v>65</v>
       </c>
@@ -7710,7 +8286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="7" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="93" t="s">
         <v>66</v>
       </c>
@@ -7754,7 +8330,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="8" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="93" t="s">
         <v>67</v>
       </c>
@@ -7798,7 +8374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="9" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93" t="s">
         <v>68</v>
       </c>
@@ -7842,7 +8418,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="10" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="93" t="s">
         <v>69</v>
       </c>
@@ -7886,7 +8462,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="11" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="93" t="s">
         <v>70</v>
       </c>
@@ -7930,7 +8506,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="12" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="102" t="s">
         <v>71</v>
       </c>
@@ -7974,7 +8550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="13" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="102" t="s">
         <v>72</v>
       </c>
@@ -8018,7 +8594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="14" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="102" t="s">
         <v>73</v>
       </c>
@@ -8062,7 +8638,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="15" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="102" t="s">
         <v>74</v>
       </c>
@@ -8106,7 +8682,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="16" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="102" t="s">
         <v>75</v>
       </c>
@@ -8150,7 +8726,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="17" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="102" t="s">
         <v>76</v>
       </c>
@@ -8194,7 +8770,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="18" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="102" t="s">
         <v>77</v>
       </c>
@@ -8238,7 +8814,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="19" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="102" t="s">
         <v>78</v>
       </c>
@@ -8282,7 +8858,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="20" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="102" t="s">
         <v>79</v>
       </c>
@@ -8326,7 +8902,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="21" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="102" t="s">
         <v>80</v>
       </c>
@@ -8370,7 +8946,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="22" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="102" t="s">
         <v>81</v>
       </c>
@@ -8414,7 +8990,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="23" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="102" t="s">
         <v>90</v>
       </c>
@@ -8458,7 +9034,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="24" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>132</v>
       </c>
@@ -8500,7 +9076,7 @@
       </c>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="25" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -8508,7 +9084,7 @@
       <c r="H25" s="1"/>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="26" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -8516,7 +9092,7 @@
       <c r="H26" s="1"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="27" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -8524,7 +9100,7 @@
       <c r="H27" s="1"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="28" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -8532,7 +9108,7 @@
       <c r="H28" s="1"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="29" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -8540,7 +9116,7 @@
       <c r="H29" s="87"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="30" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -8548,7 +9124,7 @@
       <c r="H30" s="87"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="31" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -8556,49 +9132,49 @@
       <c r="H31" s="87"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="32" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
       <c r="F32" s="47"/>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="33" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
       <c r="F33" s="47"/>
       <c r="N33" s="15"/>
     </row>
-    <row r="34" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="34" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
       <c r="F34" s="47"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="35" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
       <c r="F35" s="47"/>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="36" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="46"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
       <c r="F36" s="47"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="37" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
       <c r="F37" s="47"/>
       <c r="N37" s="15"/>
     </row>
-    <row r="38" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="38" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="46"/>
       <c r="C38" s="46"/>
@@ -8606,7 +9182,7 @@
       <c r="F38" s="47"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="39" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -8614,7 +9190,7 @@
       <c r="F39" s="47"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="40" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -8622,7 +9198,7 @@
       <c r="F40" s="47"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="41" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
@@ -8655,11 +9231,6 @@
     <oddFooter>&amp;CCopyright © 2005 Lawson  Software Inc. all rights reserved</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId17"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8670,12 +9241,12 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="16" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="48" customWidth="1"/>
@@ -8694,7 +9265,7 @@
     <col min="15" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.5" customHeight="1">
+    <row r="1" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>55</v>
       </c>
@@ -8712,7 +9283,7 @@
       <c r="M1" s="54"/>
       <c r="N1" s="55"/>
     </row>
-    <row r="2" spans="1:14" ht="17.5" customHeight="1">
+    <row r="2" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="82" t="s">
         <v>56</v>
       </c>
@@ -8730,7 +9301,7 @@
       <c r="M2" s="54"/>
       <c r="N2" s="55"/>
     </row>
-    <row r="3" spans="1:14" s="38" customFormat="1" ht="17" customHeight="1">
+    <row r="3" spans="1:14" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>14</v>
       </c>
@@ -8743,7 +9314,7 @@
       <c r="F3" s="43"/>
       <c r="N3" s="39"/>
     </row>
-    <row r="4" spans="1:14" s="42" customFormat="1" ht="34.25" customHeight="1">
+    <row r="4" spans="1:14" s="42" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
@@ -8787,7 +9358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="109" customFormat="1" ht="17.5" customHeight="1">
+    <row r="5" spans="1:14" s="109" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="106" t="s">
         <v>36</v>
       </c>
@@ -8831,12 +9402,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="6" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="94">
-        <v>2.13</v>
+      <c r="B6" s="94" t="s">
+        <v>148</v>
       </c>
       <c r="C6" s="95">
         <v>40909</v>
@@ -8875,7 +9446,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1">
+    <row r="7" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="102" t="s">
         <v>80</v>
       </c>
@@ -8919,7 +9490,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -8961,12 +9532,12 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="9" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="118">
         <v>41576</v>
@@ -9003,7 +9574,7 @@
       </c>
       <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="10" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>142</v>
       </c>
@@ -9045,10 +9616,7 @@
       </c>
       <c r="N10" s="15"/>
     </row>
-    <row r="11" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>147</v>
-      </c>
+    <row r="11" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
@@ -9056,10 +9624,7 @@
       <c r="H11" s="87"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>148</v>
-      </c>
+    <row r="12" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -9067,10 +9632,7 @@
       <c r="H12" s="87"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>149</v>
-      </c>
+    <row r="13" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -9078,49 +9640,49 @@
       <c r="H13" s="87"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="14" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="F14" s="47"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="15" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
       <c r="F15" s="47"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="16" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
       <c r="F16" s="47"/>
       <c r="N16" s="15"/>
     </row>
-    <row r="17" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="17" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
       <c r="F17" s="47"/>
       <c r="N17" s="15"/>
     </row>
-    <row r="18" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="18" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
       <c r="F18" s="47"/>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="19" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
       <c r="F19" s="47"/>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="20" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -9128,7 +9690,7 @@
       <c r="F20" s="47"/>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="21" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -9136,7 +9698,7 @@
       <c r="F21" s="47"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="22" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -9144,7 +9706,7 @@
       <c r="F22" s="47"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="23" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -9164,27 +9726,382 @@
     <oddFooter>&amp;CCopyright © 2005 Lawson  Software Inc. all rights reserved</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId4"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="45.5" style="48" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="16" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="82.33203125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+    </row>
+    <row r="3" spans="1:14" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="43"/>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="1:14" s="42" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="109" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="100" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="95">
+        <v>41882</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="95">
+        <v>41882</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="H8" s="87"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="H9" s="87"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="H10" s="87"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="N20" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="5" scale="56" fitToWidth="2" orientation="landscape"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;CCopyright © 2005 Lawson  Software Inc. all rights reserved</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>